--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il1b-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il1b-Il1r2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2105.707937</v>
+        <v>0.102351</v>
       </c>
       <c r="H2">
-        <v>6317.123811</v>
+        <v>0.307053</v>
       </c>
       <c r="I2">
-        <v>0.9998149610961508</v>
+        <v>0.2080046986044413</v>
       </c>
       <c r="J2">
-        <v>0.9998149610961509</v>
+        <v>0.2080046986044413</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>373.8120643333334</v>
+        <v>0.005328</v>
       </c>
       <c r="N2">
-        <v>1121.436193</v>
+        <v>0.015984</v>
       </c>
       <c r="O2">
-        <v>0.9916504392533645</v>
+        <v>0.001689940172269439</v>
       </c>
       <c r="P2">
-        <v>0.9916504392533645</v>
+        <v>0.001689940172269439</v>
       </c>
       <c r="Q2">
-        <v>787139.0308130546</v>
+        <v>0.0005453261280000001</v>
       </c>
       <c r="R2">
-        <v>7084251.277317492</v>
+        <v>0.004907935152000001</v>
       </c>
       <c r="S2">
-        <v>0.9914669453430834</v>
+        <v>0.0003515154961924424</v>
       </c>
       <c r="T2">
-        <v>0.9914669453430835</v>
+        <v>0.0003515154961924424</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2105.707937</v>
+        <v>0.102351</v>
       </c>
       <c r="H3">
-        <v>6317.123811</v>
+        <v>0.307053</v>
       </c>
       <c r="I3">
-        <v>0.9998149610961508</v>
+        <v>0.2080046986044413</v>
       </c>
       <c r="J3">
-        <v>0.9998149610961509</v>
+        <v>0.2080046986044413</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.442339</v>
       </c>
       <c r="O3">
-        <v>0.00834956074663552</v>
+        <v>0.9983100598277306</v>
       </c>
       <c r="P3">
-        <v>0.00834956074663552</v>
+        <v>0.9983100598277306</v>
       </c>
       <c r="Q3">
-        <v>6627.602725381548</v>
+        <v>0.322144279663</v>
       </c>
       <c r="R3">
-        <v>59648.42452843393</v>
+        <v>2.899298516967</v>
       </c>
       <c r="S3">
-        <v>0.00834801575306734</v>
+        <v>0.2076531831082489</v>
       </c>
       <c r="T3">
-        <v>0.00834801575306734</v>
+        <v>0.2076531831082489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>1.057264</v>
       </c>
       <c r="I4">
-        <v>0.0001673338051705887</v>
+        <v>0.7162147240552154</v>
       </c>
       <c r="J4">
-        <v>0.0001673338051705887</v>
+        <v>0.7162147240552154</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>373.8120643333334</v>
+        <v>0.005328</v>
       </c>
       <c r="N4">
-        <v>1121.436193</v>
+        <v>0.015984</v>
       </c>
       <c r="O4">
-        <v>0.9916504392533645</v>
+        <v>0.001689940172269439</v>
       </c>
       <c r="P4">
-        <v>0.9916504392533645</v>
+        <v>0.001689940172269439</v>
       </c>
       <c r="Q4">
-        <v>131.7393461284391</v>
+        <v>0.001877700864</v>
       </c>
       <c r="R4">
-        <v>1185.654115155952</v>
+        <v>0.016899307776</v>
       </c>
       <c r="S4">
-        <v>0.0001659366413993512</v>
+        <v>0.00121036003415178</v>
       </c>
       <c r="T4">
-        <v>0.0001659366413993512</v>
+        <v>0.00121036003415178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.057264</v>
       </c>
       <c r="I5">
-        <v>0.0001673338051705887</v>
+        <v>0.7162147240552154</v>
       </c>
       <c r="J5">
-        <v>0.0001673338051705887</v>
+        <v>0.7162147240552154</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,10 +744,10 @@
         <v>9.442339</v>
       </c>
       <c r="O5">
-        <v>0.00834956074663552</v>
+        <v>0.9983100598277306</v>
       </c>
       <c r="P5">
-        <v>0.00834956074663552</v>
+        <v>0.9983100598277306</v>
       </c>
       <c r="Q5">
         <v>1.109227233388444</v>
@@ -756,10 +756,10 @@
         <v>9.983045100496</v>
       </c>
       <c r="S5">
-        <v>1.397163771237503E-06</v>
+        <v>0.7150043640210636</v>
       </c>
       <c r="T5">
-        <v>1.397163771237503E-06</v>
+        <v>0.7150043640210636</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,46 +782,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03728866666666667</v>
+        <v>0.03728866666666666</v>
       </c>
       <c r="H6">
         <v>0.111866</v>
       </c>
       <c r="I6">
-        <v>1.770509867848813E-05</v>
+        <v>0.07578057734034331</v>
       </c>
       <c r="J6">
-        <v>1.770509867848813E-05</v>
+        <v>0.0757805773403433</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>373.8120643333334</v>
+        <v>0.005328</v>
       </c>
       <c r="N6">
-        <v>1121.436193</v>
+        <v>0.015984</v>
       </c>
       <c r="O6">
-        <v>0.9916504392533645</v>
+        <v>0.001689940172269439</v>
       </c>
       <c r="P6">
-        <v>0.9916504392533645</v>
+        <v>0.001689940172269439</v>
       </c>
       <c r="Q6">
-        <v>13.93895346290422</v>
+        <v>0.000198674016</v>
       </c>
       <c r="R6">
-        <v>125.450581166138</v>
+        <v>0.001788066144</v>
       </c>
       <c r="S6">
-        <v>1.755726888154692E-05</v>
+        <v>0.0001280646419252174</v>
       </c>
       <c r="T6">
-        <v>1.755726888154692E-05</v>
+        <v>0.0001280646419252173</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03728866666666667</v>
+        <v>0.03728866666666666</v>
       </c>
       <c r="H7">
         <v>0.111866</v>
       </c>
       <c r="I7">
-        <v>1.770509867848813E-05</v>
+        <v>0.07578057734034331</v>
       </c>
       <c r="J7">
-        <v>1.770509867848813E-05</v>
+        <v>0.0757805773403433</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>9.442339</v>
       </c>
       <c r="O7">
-        <v>0.00834956074663552</v>
+        <v>0.9983100598277306</v>
       </c>
       <c r="P7">
-        <v>0.00834956074663552</v>
+        <v>0.9983100598277306</v>
       </c>
       <c r="Q7">
         <v>0.1173640771748889</v>
@@ -880,10 +880,10 @@
         <v>1.056276694574</v>
       </c>
       <c r="S7">
-        <v>1.478297969412129E-07</v>
+        <v>0.07565251269841809</v>
       </c>
       <c r="T7">
-        <v>1.478297969412129E-07</v>
+        <v>0.07565251269841808</v>
       </c>
     </row>
   </sheetData>
